--- a/VoyagerLab1Net/Время работы.xlsx
+++ b/VoyagerLab1Net/Время работы.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\VoyagerLab1Net\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\hse-labs\VoyagerLab1Net\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{765201B8-CF94-4E34-95E7-583ABAA45969}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836E97D5-6B52-47BB-8E52-A14CE7A08D39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="2730" windowWidth="23520" windowHeight="11460" xr2:uid="{1C8B457D-189C-45F5-B985-A897C23C4772}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1C8B457D-189C-45F5-B985-A897C23C4772}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="С оптимизацией" sheetId="1" r:id="rId1"/>
+    <sheet name="Без оптимизации" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,6 +23,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -180,7 +185,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$1:$A$10</c:f>
+              <c:f>'С оптимизацией'!$A$1:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -219,7 +224,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$1:$B$10</c:f>
+              <c:f>'С оптимизацией'!$B$1:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -560,7 +565,1313 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Задача</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> коммивояжёра</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'С оптимизацией'!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'С оптимизацией'!$C$1:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.9365079365079367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5980113636363633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.083937823834197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1178797468354431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5360360360360361</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1176786673831272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7921782628467484</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5216216216216216</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2627363024671581</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9231-4366-A530-8387C37CEA2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2053340559"/>
+        <c:axId val="2053340975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2053340559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Кол-во потоков</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2053340975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2053340975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Ускорение!</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2053340559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Без оптимизации'!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Без оптимизации'!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2205-49E2-B11D-00E0083283D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2053338479"/>
+        <c:axId val="2053313103"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2053338479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2053313103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2053313103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2053338479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Без оптимизации'!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Без оптимизации'!$C$1:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12.956521739130435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6222222222222218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.382352941176471</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3111111111111109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8113207547169812</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3100775193798451</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9477124183006536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6195652173913044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.336322869955157</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33D2-4762-8F9B-40026E2FDFC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2078823247"/>
+        <c:axId val="2078817007"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2078823247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2078817007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2078817007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2078823247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1116,20 +2427,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1149,6 +4008,119 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58EADE58-C13A-495A-88ED-C048C7601AA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7D7B0B-0E75-4BCB-A315-80D21D99399A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23280A7-C5D0-47DE-B287-2E5015513994}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1454,10 +4426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3EBC73A-962F-4EF0-A84A-C8654EFCC542}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCellId="1" sqref="C1:C10 A1:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,84 +4437,260 @@
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>10</v>
       </c>
       <c r="B1">
         <v>441</v>
       </c>
+      <c r="C1">
+        <f>$B$10/B1</f>
+        <v>8.9365079365079367</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
       <c r="B2">
         <v>704</v>
       </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C10" si="0">$B$10/B2</f>
+        <v>5.5980113636363633</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
       <c r="B3">
         <v>965</v>
       </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>4.083937823834197</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
       <c r="B4">
         <v>1264</v>
       </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3.1178797468354431</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5">
         <v>1554</v>
       </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2.5360360360360361</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1861</v>
       </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2.1176786673831272</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
         <v>2199</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.7921782628467484</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8">
         <v>2590</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.5216216216216216</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9">
         <v>3121</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.2627363024671581</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10">
         <v>3941</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D410296-ED23-49BA-ABAE-438210CF323E}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>23</v>
+      </c>
+      <c r="C1">
+        <f>$B$10/B1</f>
+        <v>12.956521739130435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C10" si="0">$B$10/B2</f>
+        <v>6.6222222222222218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>4.382352941176471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3.3111111111111109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>106</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2.8113207547169812</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>129</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2.3100775193798451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>153</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.9477124183006536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>184</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.6195652173913044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>223</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.336322869955157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>298</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/VoyagerLab1Net/Время работы.xlsx
+++ b/VoyagerLab1Net/Время работы.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\hse-labs\VoyagerLab1Net\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836E97D5-6B52-47BB-8E52-A14CE7A08D39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B704F9-FE24-422A-B8AF-EF77C2601918}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1C8B457D-189C-45F5-B985-A897C23C4772}"/>
+    <workbookView xWindow="9300" yWindow="2595" windowWidth="18885" windowHeight="11460" activeTab="1" xr2:uid="{1C8B457D-189C-45F5-B985-A897C23C4772}"/>
   </bookViews>
   <sheets>
     <sheet name="С оптимизацией" sheetId="1" r:id="rId1"/>
     <sheet name="Без оптимизации" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,10 +24,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -229,34 +226,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>441</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>704</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>965</c:v>
+                  <c:v>2596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1264</c:v>
+                  <c:v>3233</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1554</c:v>
+                  <c:v>3859</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1861</c:v>
+                  <c:v>4684</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2199</c:v>
+                  <c:v>5608</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2590</c:v>
+                  <c:v>6618</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3121</c:v>
+                  <c:v>7737</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3941</c:v>
+                  <c:v>9304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -717,31 +714,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.9365079365079367</c:v>
+                  <c:v>6.4165517241379311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5980113636363633</c:v>
+                  <c:v>4.5923000987166835</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.083937823834197</c:v>
+                  <c:v>3.5839753466872111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1178797468354431</c:v>
+                  <c:v>2.8778224559232912</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5360360360360361</c:v>
+                  <c:v>2.4109873024099508</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1176786673831272</c:v>
+                  <c:v>1.9863364645602049</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7921782628467484</c:v>
+                  <c:v>1.659058487874465</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5216216216216216</c:v>
+                  <c:v>1.4058627984285283</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2627363024671581</c:v>
+                  <c:v>1.2025332816337082</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -1176,34 +1173,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>129</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>153</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>184</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>223</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>298</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1525,31 +1522,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12.956521739130435</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6222222222222218</c:v>
+                  <c:v>3.5833333333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.382352941176471</c:v>
+                  <c:v>2.8666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3111111111111109</c:v>
+                  <c:v>2.5294117647058822</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8113207547169812</c:v>
+                  <c:v>2.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3100775193798451</c:v>
+                  <c:v>1.8695652173913044</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9477124183006536</c:v>
+                  <c:v>1.6538461538461537</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6195652173913044</c:v>
+                  <c:v>1.4333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.336322869955157</c:v>
+                  <c:v>1.2285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -4429,7 +4426,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCellId="1" sqref="C1:C10 A1:A10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4442,11 +4439,11 @@
         <v>10</v>
       </c>
       <c r="B1">
-        <v>441</v>
+        <v>1450</v>
       </c>
       <c r="C1">
         <f>$B$10/B1</f>
-        <v>8.9365079365079367</v>
+        <v>6.4165517241379311</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4454,11 +4451,11 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>704</v>
+        <v>2026</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C10" si="0">$B$10/B2</f>
-        <v>5.5980113636363633</v>
+        <v>4.5923000987166835</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4466,11 +4463,11 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>965</v>
+        <v>2596</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>4.083937823834197</v>
+        <v>3.5839753466872111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4478,11 +4475,11 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1264</v>
+        <v>3233</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>3.1178797468354431</v>
+        <v>2.8778224559232912</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4490,11 +4487,11 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1554</v>
+        <v>3859</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>2.5360360360360361</v>
+        <v>2.4109873024099508</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4502,11 +4499,11 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1861</v>
+        <v>4684</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>2.1176786673831272</v>
+        <v>1.9863364645602049</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4514,11 +4511,11 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>2199</v>
+        <v>5608</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>1.7921782628467484</v>
+        <v>1.659058487874465</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4526,11 +4523,11 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>2590</v>
+        <v>6618</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>1.5216216216216216</v>
+        <v>1.4058627984285283</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4538,11 +4535,11 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>3121</v>
+        <v>7737</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>1.2627363024671581</v>
+        <v>1.2025332816337082</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4550,7 +4547,7 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>3941</v>
+        <v>9304</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -4568,7 +4565,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4578,11 +4575,11 @@
         <v>10</v>
       </c>
       <c r="B1">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C1">
         <f>$B$10/B1</f>
-        <v>12.956521739130435</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4590,11 +4587,11 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C10" si="0">$B$10/B2</f>
-        <v>6.6222222222222218</v>
+        <v>3.5833333333333335</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4602,11 +4599,11 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>4.382352941176471</v>
+        <v>2.8666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4614,11 +4611,11 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>3.3111111111111109</v>
+        <v>2.5294117647058822</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4626,11 +4623,11 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>2.8113207547169812</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4638,11 +4635,11 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>2.3100775193798451</v>
+        <v>1.8695652173913044</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4650,11 +4647,11 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>1.9477124183006536</v>
+        <v>1.6538461538461537</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4662,11 +4659,11 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>1.6195652173913044</v>
+        <v>1.4333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4674,11 +4671,11 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>1.336322869955157</v>
+        <v>1.2285714285714286</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4686,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>298</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -4697,4 +4694,107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A114AC5-80E6-47CA-9DF8-B95892057514}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>11</v>
+      </c>
+      <c r="B1">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>5608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>6618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>7737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>9304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>